--- a/documents/移动推送接口文档.xlsx
+++ b/documents/移动推送接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="1800" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="2200" yWindow="980" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -255,6 +255,24 @@
   </si>
   <si>
     <t>public/api/register/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入登录日志失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -709,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.33203125" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,6 +804,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>300</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>301</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/documents/移动推送接口文档.xlsx
+++ b/documents/移动推送接口文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="980" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="860" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="接口文档" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>public/api/register/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录</t>
     <rPh sb="0" eb="1">
       <t>deng'lu</t>
@@ -273,6 +269,43 @@
   </si>
   <si>
     <t>写入登录日志失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public/api/register/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public/api/login/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录令牌</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'pai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.1640625" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -713,6 +746,57 @@
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -730,7 +814,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.33203125" defaultRowHeight="41" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -806,13 +890,13 @@
     </row>
     <row r="10" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,7 +904,7 @@
         <v>301</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
